--- a/Fresh_Leads_wholesale.xlsx
+++ b/Fresh_Leads_wholesale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J256"/>
+  <dimension ref="A1:J369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6531,6 +6531,2982 @@
       </c>
       <c r="J256" t="inlineStr"/>
     </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>201914791G</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>['+6563520116']</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://www.3lrealtors.com/</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/3l-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>201423027E</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>['navforce@navforcemarine.com']</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>['+6590937717']</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>https://www.navforcemarine.com/</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/navforce-marine-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>197500463W</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>['+6568482288']</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>https://pancoship.com</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>['https://sg.linkedin.com/in/lawrence-lim-5a1963141']</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/pan-co-hardware-engineering-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>201403650W</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>['+6562480888']</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://cuckoo.sg</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/cuckookidstore', 'https://www.facebook.com/cuckoosgofficial']</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>['https://www.linkedin.com/company/cuckoosgofficial/']</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>['https://www.instagram.com/cuckoolittlelifestyle', 'https://www.instagram.com/cuckoosgofficial/']</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/the-cuckoo-collection-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>202424936Z</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/sng-apparel-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>199802378E</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>['efreshfruit@gmail.com']</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>['+6567780986']</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>https://efreshfruit.com</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/efreshfruit.hhh/']</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/hock-hoe-hin-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>200300731Z</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>['+6562754690']</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>https://semperitgroup.com</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/semperit-industrial-products-singapore-private-limited</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>52987180K</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>['+6567886729']</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/sheng-hao-gi-wholesales</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>200606581D</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/xinsha-international-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>202523382Z</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/mhu-energy-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>196800013C</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>['+6562871234']</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://www.mitchellelliott.com/</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/mitchell-elliott-far-east-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>200611962D</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>['admins@miragemw.sg']</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>['+6590059279']</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://miragemw.sg</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/teammirage']</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>['https://www.instagram.com/miragemotorwerkz/']</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/mirage-motor-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>200706766E</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/cwh-services-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>202446200D</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/nanxu-mining-technology-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>202505631E</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/flex-commodities-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>53156789C</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/p/cervac-technologies-100072264022113/']</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/cervac-technologies</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>202431247K</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/rayhoo-motor-dies-singapore-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>202109035M</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>['sales@leonelectronics.sg']</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>['+6588768846']</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>https://leonelectronics.sg/</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/le-on-electronics-private-limited</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>201628772E</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>https://primeasure.com/</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/primeasure-technologies-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>202420062W</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>['sales@globalfacility.sg']</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>['+6590738070']</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/global-facility-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>200507156N</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>['+6564760315']</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/technical-media-services-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>199602402W</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>['+6564319050']</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>https://www.mycareersfuture.gov.sg/job/consulting/lpg-analyst-poten-partners-423160c35af295c2403a0cad340db2f0</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/poten-partners-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>200416556K</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>['info@swisspro.sg']</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>['+6562761005']</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>https://swisspro.sg</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/swissprosg']</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>['https://sg.linkedin.com/company/swisspro-pte-ltd']</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>['https://www.instagram.com/swissprosg/']</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/swisspro-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>53323378W</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>https://jlbuilding.com.sg/</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/jl-supplies-and-services-provider</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>201935834K</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>['contact@meeth-apac.com.sg']</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>['+6569103456']</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>https://meeth-apac.com.sg</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/meethglobal/']</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>['https://www.instagram.com/meethglobal/']</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/meeth-asiapacific-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>201921077N</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>['+6569085136']</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>https://www.sts-seafooddirect.com/</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/people/sts-seafood-direct-pte-ltd/61557960541571']</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/saints-food-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>28347100W</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/teleorient-company</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>202513430K</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>https://flowmix.co.uk/</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>['https://www.instagram.com/flowmix_ltd_/']</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/flowmix-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>202314280N</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/intex-africa-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>52995403J</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/xing-yuan-trading</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>22395400D</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Scraping error: Failed to type UEN: Waiting for selector `input[placeholder='Search company name, industry, or address']` failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>T12LL2118K</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>['+6582107162']</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/xun-hardware-llp</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>53044787L</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/vipworldwidetv/']</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/vip-worldwide</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>201106420H</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/tengri-coal-and-energy-pte-limited</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>200822966H</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>['+6568425535']</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/corrosiontech-corporation-asia-pacific-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>202228036G</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>['sales@trendink.com.sg']</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>['+6584079590']</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>https://trendink.com.sg</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/trendinksg']</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>['https://www.instagram.com/trendink/']</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/trendink-apparel-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>200007192D</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>['contactus@airconuncle.com.sg']</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>['+6598522583']</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>https://airconuncle.com.sg</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/airconunclesg/', 'https://www.facebook.com/airconconnects/']</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/kitchen-connects-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>201718821K</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>Company not found on RecordOwl</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>202020433N</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/innos-trading-marine-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>198701310R</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>Scraping error: Failed to load company page: net::ERR_SOCKET_NOT_CONNECTED at https://recordowl.com/company/hy-cad-systems-engineering-pte-ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>25668300W</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>['+6565638725']</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/hock-ban-heng-trading-co</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>201829991M</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>['+6580810883']</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/leia-trading-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>200404709W</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>['info@activeix.com']</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/active-internet-exchange-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>198905384C</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>Company not found on RecordOwl</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>202306570Z</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>['gul@genextlogistics.com']</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>['+6591997116']</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>https://genext-intl.com/</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/genext-international-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>200916513E</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>['info@gaiascience.com.sg']</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>['+6568972772']</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>https://gaiascience.com.sg</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/gaiascience']</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>['https://www.linkedin.com/company/gaia-science-pte-ltd/']</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>['https://www.instagram.com/gaiasciencesingapore/']</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/gaia-science-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>202434733R</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/blue-coast-technology-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>201701212H</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>https://hologic.com</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/hologic']</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>['https://www.instagram.com/hologic/']</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/hologic-singapore-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>53508451W</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/kgs-asia-enterprise</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>202030254Z</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/yongdebao-rubber-plastic-industry-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>53498104J</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>Apify call failed: Monthly usage hard limit exceeded. Please upgrade your subscription or contact support@apify.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>42585900B</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>Apify call failed: Monthly usage hard limit exceeded. Please upgrade your subscription or contact support@apify.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>202421242W</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>Apify call failed: Monthly usage hard limit exceeded. Please upgrade your subscription or contact support@apify.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>202120030G</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/stylelist-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>202448308W</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/titanium-nexus-international-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>200904019G</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>['sg@benephytlabs.com']</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>['+6564404414']</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>https://mediphyt.sg</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/benephyt-laboratories-singapore-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>53007604K</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/paurich-supply-services</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>200816801K</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>['contactus@airconuncle.com.sg']</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>['+6598522583']</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>https://airconuncle.com.sg</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/airconunclesg/', 'https://www.facebook.com/airconconnects/']</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/kitchen-connects-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>201609647G</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>['info@nexussolarenergy.in']</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/nexus-solar-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>202209403N</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>['sales@topsunplating.com']</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>https://topsunplating.com/</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/top-sun-automotive-components-singapore-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>202017851M</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>['+6568308454']</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>['https://sg.linkedin.com/company/rubber-services-singapore-1877']</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/rubber-services-singapore-1877-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>202510559Z</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>['sales@mchdne.com']</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>['+6588011385']</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>https://www.mchdne.com/</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/mch-industries-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>198703076G</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>['info@noahmarinegroup.com']</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>['+6563165065']</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>https://www.singapore.noahmarinegroup.com/</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/noah-marine-supplies-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>201930039G</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>Scraping error: Failed to load company page: Navigation timeout of 60000 ms exceeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>197700970W</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>['+6568469222']</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>https://yonglee.com.sg</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/yong-lee-cloth-merchant-private-limited</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>201803348D</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>['sales@epecomsolutions.com']</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>['+6568426994']</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>https://epecomgraphics.com.sg</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/p/epecom-solutions-pte-ltd-100067115795200/']</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>['https://sg.linkedin.com/company/epecom-graphics-pte-ltd']</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/epecom-solutions-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>200708433D</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>['+6565623384']</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>https://gsprofiles.net</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/gs-profiles-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>199605065W</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>['+6563910339']</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/c-e-technology-far-east-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>201434427W</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>['enquiries@mkmcarleasing.com.sg']</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>['+6567476880']</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>https://mkm.com.sg</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/mkmcarleasing/']</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/mkm-services-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>202244698D</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>Company not found on RecordOwl</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>201840243W</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/my-cardia-sg-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>201926647E</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>Scraping error: Failed to type UEN: Waiting for selector `input[placeholder='Search company name, industry, or address']` failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>201023365D</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>['info@stm-ce.com']</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>['+6583183139']</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>https://stm-ce.com</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/stm.construction.equipment']</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/stm-construction-equipment-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>200806608Z</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>['sales@puritec-group.com']</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>['+6565091848']</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>http://www.puritec-group.com/</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>['https://sg.linkedin.com/in/pei-chern-lee-15b201163']</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/puritech-global-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>202236497W</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>['contactus@airconuncle.com.sg']</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>['+6598522583']</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>https://airconuncle.com.sg</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/airconunclesg/', 'https://www.facebook.com/airconconnects/']</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/kitchen-connects-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>201609141H</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>['cd@sanaayaventures.com']</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>https://sanaayaventures.com</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/sanaaya-ventures-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>200714583N</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>https://lsquaredigital.com/</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/l-square-group-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>200310504D</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr"/>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>['+6563162230']</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>https://timesdirectories.com</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/timesdirectories']</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/ocean-electrical-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>202240022R</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/estalca-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>53389526W</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/spark4nz/']</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>['https://www.instagram.com/sparknz/']</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/sparknz</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>200505164M</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>['+6567488876']</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>https://foxconn.com</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/foxconn-technology-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>202416991R</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>https://marinejetpower.com/</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/mjp-apac-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>202417553E</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>https://gte.sg/</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/h-c-greentech-singapore-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>202444335W</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/eastal-group-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>202517354K</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/sg-webe-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>202539773M</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Company not found on RecordOwl</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>202031217W</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>['Autopotcentresg@gmail.com']</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>['+6596336348']</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>https://gardensmartshop.com.au</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/autopot.au', 'https://www.facebook.com/autopotcentresg/']</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>['https://www.instagram.com/autopot_systems/']</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/autopot-singapore-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>201305218E</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/develop-trading-co-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>202007776Z</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/yanjan-international-trading-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>198003057G</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>['+6562262006']</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/esbee-co-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>200412700E</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>['sales@progreso.com.sg']</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>['+6565099600']</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>https://progreso.com.sg</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/progreson']</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>['https://sg.linkedin.com/company/progreso-security']</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/progreso-networks-s-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>201303026N</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr"/>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/prithvi-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>201732296E</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>['+6563070424']</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>https://www.mycareersfuture.gov.sg/job/sales/medical-sales-representative-idms-industries-76885a43e3cef469e443cb8afd3c0f20</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>['https://sg.linkedin.com/company/idmsindustries']</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/aiam-asia-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>202408877R</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/yuntop-ped-technology-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>25312900A</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr"/>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>['https://sg.linkedin.com/company/gafoor-trading-company']</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/gafoor-trading-company</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>201806341R</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>['+6569099345']</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>https://beam-machines.com</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/beam-machines-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>201208419K</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>['sales@totalmarine.com.sg']</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>['+6562623000']</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>https://totalmarine.com.sg</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/total-marine-equipments-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>53506625B</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/rasago</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>202317887G</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/nutriland-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>201204768C</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>Company not found on RecordOwl</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>200909666G</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>['+6562506506']</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/unimetal-resources-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>200805197N</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>https://www.lamsoon.com/</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/lamson-singapore-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>52874724W</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>Company not found on RecordOwl</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>202041096W</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>['contactus@airconuncle.com.sg']</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>['+6598522583']</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>https://airconuncle.com.sg</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/airconunclesg/', 'https://www.facebook.com/airconconnects/']</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/kitchen-connects-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>202502139K</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>['+6563333335']</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>https://ultrasupplies.com.sg/</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/ultrasuppliessg']</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>['https://www.instagram.com/ultrasupplies/']</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/ultra-great-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>53005718B</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>['+6588537339']</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/swee-huat-tan-kee-trading</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>202500762G</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr"/>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/perpetual-source-private-limited</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>202243964H</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>['contactus@airconuncle.com.sg']</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>['+6598522583']</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>https://airconuncle.com.sg</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/airconunclesg/', 'https://www.facebook.com/airconconnects/']</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/kitchen-connects-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>201931761R</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/rszb-international-development-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>202112075G</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>['contactus@airconuncle.com.sg']</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>['+6598522583']</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>https://airconuncle.com.sg</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/airconunclesg/', 'https://www.facebook.com/airconconnects/']</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/kitchen-connects-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>202537030N</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr"/>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/kapi-kapi-by-luvi-pte-ltd</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>53446695L</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr"/>
+      <c r="C368" t="inlineStr"/>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>https://www.elitefood.sg/</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/j-elite-food</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>33914900X</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr"/>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>['+6567937781']</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>['https://www.facebook.com/lakeside.fisherytrading/']</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>https://recordowl.com/company/lakeside-fishery-trading</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
